--- a/medicine/Handicap/Office_des_personnes_handicapées_du_Québec/Office_des_personnes_handicapées_du_Québec.xlsx
+++ b/medicine/Handicap/Office_des_personnes_handicapées_du_Québec/Office_des_personnes_handicapées_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Office_des_personnes_handicap%C3%A9es_du_Qu%C3%A9bec</t>
+          <t>Office_des_personnes_handicapées_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Office des personnes handicapées du Québec est un organisme public du gouvernement du Québec créé en 1978. Sa constitution est enchâssée dans la Loi assurant l’exercice des droits des personnes handicapées en vue de leur intégration scolaire, professionnelle et sociale (RLRQ, c. E-20.1).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Office_des_personnes_handicap%C3%A9es_du_Qu%C3%A9bec</t>
+          <t>Office_des_personnes_handicapées_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Office des personnes handicapées du Québec veille au respect de la Loi assurant l’exercice des droits des personnes handicapées en vue de leur intégration scolaire, professionnelle et sociale (RLRQ, c. E-20.1).
 Il s’assure que les organisations poursuivent leurs efforts à l’égard de la participation sociale des personnes handicapées.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Office_des_personnes_handicap%C3%A9es_du_Qu%C3%A9bec</t>
+          <t>Office_des_personnes_handicapées_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vision de l’Office est celle d’une organisation qui contribue, par son leadership et son expertise, à faire du Québec une société plus inclusive, solidaire et respectueuse des besoins des personnes handicapées et de leur famille.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Office_des_personnes_handicap%C3%A9es_du_Qu%C3%A9bec</t>
+          <t>Office_des_personnes_handicapées_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’Office exerce une combinaison unique de fonctions pour réaliser sa mission :
 conduire des travaux d’évaluation et de recherche sur la participation sociale des personnes handicapées au Québec, donnant lieu à des recommandations basées sur l’analyse de données fiables;
